--- a/src/main/java/com/thinknumbers/testdata/ThinkNumbersTestData.xlsx
+++ b/src/main/java/com/thinknumbers/testdata/ThinkNumbersTestData.xlsx
@@ -1,34 +1,253 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\eclipse-workspace\ThinkNumbersTest\src\main\java\com\thinknumbers\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7015ED50-E000-4B9B-A150-03FA0D382E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F568AD4A-DECC-408A-B2CF-716A962FE00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" activeTab="3" xr2:uid="{23A7C943-3E6F-4BB6-9D82-B9DA41E88911}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="867" firstSheet="3" activeTab="14" xr2:uid="{23A7C943-3E6F-4BB6-9D82-B9DA41E88911}"/>
   </bookViews>
   <sheets>
-    <sheet name="ComGroupEntityDetails" sheetId="1" r:id="rId1"/>
-    <sheet name="ComCredentials" sheetId="2" r:id="rId2"/>
-    <sheet name="SubMasterCurrency" sheetId="3" r:id="rId3"/>
-    <sheet name="LedgerList" sheetId="4" r:id="rId4"/>
+    <sheet name="Currency" sheetId="3" r:id="rId1"/>
+    <sheet name="EntityDetails" sheetId="1" r:id="rId2"/>
+    <sheet name="ExchangeRate" sheetId="7" r:id="rId3"/>
+    <sheet name="ComCredentials" sheetId="2" r:id="rId4"/>
+    <sheet name="LedgerList" sheetId="4" r:id="rId5"/>
+    <sheet name="ReportingLedger" sheetId="5" r:id="rId6"/>
+    <sheet name="OperatingMetrics" sheetId="6" r:id="rId7"/>
+    <sheet name="OMGroup" sheetId="15" r:id="rId8"/>
+    <sheet name="ReportSection" sheetId="8" r:id="rId9"/>
+    <sheet name="ReportTemplate" sheetId="9" r:id="rId10"/>
+    <sheet name="KeyNumbers" sheetId="10" r:id="rId11"/>
+    <sheet name="Charts" sheetId="11" r:id="rId12"/>
+    <sheet name="Tables" sheetId="12" r:id="rId13"/>
+    <sheet name="Dashboard" sheetId="13" r:id="rId14"/>
+    <sheet name="PublishReport" sheetId="14" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Thameem Ahmed Khaiyum</author>
+  </authors>
+  <commentList>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{8D00178A-316D-4546-B8DD-2A0BF92EAA4C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Thameem Ahmed Khaiyum:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+RL,
+OM
+AL</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Thameem Ahmed Khaiyum</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{B44E35DA-8ED9-4C60-823B-7289FB2EBA57}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Thameem Ahmed Khaiyum:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Ex:
+AL1
+OM1</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Thameem Ahmed Khaiyum</author>
+  </authors>
+  <commentList>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{2CD1D0FD-04F4-4276-9FD8-B9273C17A8C4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Thameem Ahmed Khaiyum:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+If CompVsPrev is No enter None else enter actual value</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Thameem Ahmed Khaiyum</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{01D0B9D0-F6CC-4AE8-B88E-75A222716EF7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Thameem Ahmed Khaiyum:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+If there are multiple options, enter using comma(,)
+Ex:- Dunzo1,Dunzo2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{36F166BA-FF15-4F8B-BB56-134FB8CE9FE6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Thameem Ahmed Khaiyum:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+If there are multiple options, enter using comma(,)
+Ex:- RL1,AL1</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Thameem Ahmed Khaiyum</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{1503325E-5B9B-4DFB-899C-9FFEE352188C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Thameem Ahmed Khaiyum:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+If there are multiple options, enter using comma(,)
+Ex:- Dunzo1,Dunzo2</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="198">
   <si>
     <t>entityname</t>
   </si>
@@ -42,9 +261,6 @@
     <t>remarks</t>
   </si>
   <si>
-    <t>INR</t>
-  </si>
-  <si>
     <t>Test 1</t>
   </si>
   <si>
@@ -87,41 +303,551 @@
     <t>Balance Sheet</t>
   </si>
   <si>
+    <t>Fixed Assets</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>RLName</t>
+  </si>
+  <si>
+    <t>DisplayName</t>
+  </si>
+  <si>
+    <t>DashboardDisplayName</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>SubType</t>
+  </si>
+  <si>
+    <t>Calculation</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Liability</t>
+  </si>
+  <si>
     <t>Asset</t>
   </si>
   <si>
-    <t>Liability</t>
-  </si>
-  <si>
-    <t>Fixed Assets</t>
+    <t>Dunzo1</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>DisName</t>
+  </si>
+  <si>
+    <t>DashDisName</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>FigConversion</t>
+  </si>
+  <si>
+    <t>ExchangeRate</t>
+  </si>
+  <si>
+    <t>YTDCalculation</t>
+  </si>
+  <si>
+    <t>Operating Metrics</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
   <si>
     <t>Current Liabilities</t>
   </si>
   <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>Dunzo 30</t>
-  </si>
-  <si>
-    <t>AED</t>
-  </si>
-  <si>
-    <t>Emirati Dirham</t>
-  </si>
-  <si>
-    <t>AAHAA STORES PRIVATE LIMITED</t>
-  </si>
-  <si>
-    <t>Aban Offshore Limited</t>
+    <t>P&amp;L</t>
+  </si>
+  <si>
+    <t>Expense</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>ToCurrency</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>DispName</t>
+  </si>
+  <si>
+    <t>GroupName</t>
+  </si>
+  <si>
+    <t>IsCalc</t>
+  </si>
+  <si>
+    <t>FigConv</t>
+  </si>
+  <si>
+    <t>ExchRate</t>
+  </si>
+  <si>
+    <t>Aggregate</t>
+  </si>
+  <si>
+    <t>DashDispName</t>
+  </si>
+  <si>
+    <t>IsRlOm</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>LedgerCode</t>
+  </si>
+  <si>
+    <t>ALName1</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>RL1</t>
+  </si>
+  <si>
+    <t>ALName2</t>
+  </si>
+  <si>
+    <t>RL2</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>TemplateName</t>
+  </si>
+  <si>
+    <t>EntityName</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>ReportGroup</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Rupees</t>
+  </si>
+  <si>
+    <t>AL1,AL2</t>
+  </si>
+  <si>
+    <t>AL3,AL4</t>
+  </si>
+  <si>
+    <t>KeyNumbers</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>CompVsPrev</t>
+  </si>
+  <si>
+    <t>CompVsBudget</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>YTD(From April)</t>
+  </si>
+  <si>
+    <t>CompRange</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>ChartType</t>
+  </si>
+  <si>
+    <t>ChartTitle</t>
+  </si>
+  <si>
+    <t>X-Axis</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>ReportTemplate</t>
+  </si>
+  <si>
+    <t>ReportLedger</t>
+  </si>
+  <si>
+    <t>Simple line chart</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Trailing 12 months</t>
+  </si>
+  <si>
+    <t>Template1</t>
+  </si>
+  <si>
+    <t>RL1,RL2,AL1,AL2</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>ReportSection</t>
+  </si>
+  <si>
+    <t>ReportType</t>
+  </si>
+  <si>
+    <t>YTD</t>
+  </si>
+  <si>
+    <t>YTDFrom</t>
+  </si>
+  <si>
+    <t>YTDColLabel</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>Apr to Mar</t>
+  </si>
+  <si>
+    <t>AtoM</t>
+  </si>
+  <si>
+    <t>DashboardTitle</t>
+  </si>
+  <si>
+    <t>NoOfRows</t>
+  </si>
+  <si>
+    <t>Row1</t>
+  </si>
+  <si>
+    <t>Key numbers</t>
+  </si>
+  <si>
+    <t>Row2</t>
+  </si>
+  <si>
+    <t>Row3</t>
+  </si>
+  <si>
+    <t>Charts</t>
+  </si>
+  <si>
+    <t>Tables</t>
+  </si>
+  <si>
+    <t>NoOfKeyNumbers</t>
+  </si>
+  <si>
+    <t>NoOfCharts</t>
+  </si>
+  <si>
+    <t>NoOfTables</t>
+  </si>
+  <si>
+    <t>KeyNumbersReports</t>
+  </si>
+  <si>
+    <t>ChartReports</t>
+  </si>
+  <si>
+    <t>TablesReports</t>
+  </si>
+  <si>
+    <t>TempalteName</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>ColumnTotal</t>
+  </si>
+  <si>
+    <t>FromDate</t>
+  </si>
+  <si>
+    <t>ToDate</t>
+  </si>
+  <si>
+    <t>DecimalOption</t>
+  </si>
+  <si>
+    <t>ReportName</t>
+  </si>
+  <si>
+    <t>UserGroup</t>
+  </si>
+  <si>
+    <t>Round</t>
+  </si>
+  <si>
+    <t>As Is</t>
+  </si>
+  <si>
+    <t>UserGroup1</t>
+  </si>
+  <si>
+    <t>admin,viewer</t>
+  </si>
+  <si>
+    <t>Chart1,Chart2</t>
+  </si>
+  <si>
+    <t>Table1,Table2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>Food Delivery</t>
+  </si>
+  <si>
+    <t>LedgerType</t>
+  </si>
+  <si>
+    <t>Revenue,Expense</t>
+  </si>
+  <si>
+    <t>Liability,Asset</t>
+  </si>
+  <si>
+    <t>UOMType</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>Template2</t>
+  </si>
+  <si>
+    <t>RL3,RL4,AL3,AL4</t>
+  </si>
+  <si>
+    <t>Quarterly</t>
+  </si>
+  <si>
+    <t>RL3</t>
+  </si>
+  <si>
+    <t>RL4</t>
+  </si>
+  <si>
+    <t>AL1KeyNumbers,AL2KeyNumbers,AL3KeyNumbers,AL4KeyNumbers</t>
+  </si>
+  <si>
+    <t>1/Apr/2021</t>
+  </si>
+  <si>
+    <t>31/Mar/2022</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>Euro</t>
+  </si>
+  <si>
+    <t>KWD,NPR,INR,EUR</t>
+  </si>
+  <si>
+    <t>0.30,118.26,73.81,0.88</t>
+  </si>
+  <si>
+    <t>TestOM3</t>
+  </si>
+  <si>
+    <t>TestOM4</t>
+  </si>
+  <si>
+    <t>TestDispNameOM3</t>
+  </si>
+  <si>
+    <t>TestDispNameOM4</t>
+  </si>
+  <si>
+    <t>TestDashDispNameOM3</t>
+  </si>
+  <si>
+    <t>TestDashDispNameOM4</t>
+  </si>
+  <si>
+    <t>OMGroup3</t>
+  </si>
+  <si>
+    <t>OMGroup4</t>
+  </si>
+  <si>
+    <t>Stacked column chart</t>
+  </si>
+  <si>
+    <t>JUN</t>
+  </si>
+  <si>
+    <t>test13</t>
+  </si>
+  <si>
+    <t>test14</t>
+  </si>
+  <si>
+    <t>RLName9</t>
+  </si>
+  <si>
+    <t>DRL9</t>
+  </si>
+  <si>
+    <t>DDRL9</t>
+  </si>
+  <si>
+    <t>RLName10</t>
+  </si>
+  <si>
+    <t>DRL10</t>
+  </si>
+  <si>
+    <t>DDRL10</t>
+  </si>
+  <si>
+    <t>ALName9</t>
+  </si>
+  <si>
+    <t>DispAL9</t>
+  </si>
+  <si>
+    <t>GroupAL9</t>
+  </si>
+  <si>
+    <t>DashDispAL9</t>
+  </si>
+  <si>
+    <t>ALName10</t>
+  </si>
+  <si>
+    <t>DispAL10</t>
+  </si>
+  <si>
+    <t>GroupAL10</t>
+  </si>
+  <si>
+    <t>DashDispAL10</t>
+  </si>
+  <si>
+    <t>ALName11</t>
+  </si>
+  <si>
+    <t>DispAL11</t>
+  </si>
+  <si>
+    <t>GroupAL11</t>
+  </si>
+  <si>
+    <t>DashDispAL11</t>
+  </si>
+  <si>
+    <t>ALName12</t>
+  </si>
+  <si>
+    <t>DispAL12</t>
+  </si>
+  <si>
+    <t>GroupAL12</t>
+  </si>
+  <si>
+    <t>DashDispAL12</t>
+  </si>
+  <si>
+    <t>Template5</t>
+  </si>
+  <si>
+    <t>Template6</t>
+  </si>
+  <si>
+    <t>AL9KeyNumbers</t>
+  </si>
+  <si>
+    <t>AL10KeyNumbers</t>
+  </si>
+  <si>
+    <t>Chart5</t>
+  </si>
+  <si>
+    <t>Chart6</t>
+  </si>
+  <si>
+    <t>Table5</t>
+  </si>
+  <si>
+    <t>Table6</t>
+  </si>
+  <si>
+    <t>Dashboard3</t>
+  </si>
+  <si>
+    <t>Report4</t>
+  </si>
+  <si>
+    <t>Template1,Template2,Template3,Template4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +868,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -170,9 +909,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,11 +1228,644 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F5E450-0622-44D7-9FFD-D2B6EC513F68}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2609CC-0789-4859-BF6A-A9B876989C80}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.4609375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABCC11A5-4101-408A-8309-AF2CF5B822F5}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="4.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.61328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.3828125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.4609375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.3046875" customWidth="1"/>
+    <col min="8" max="8" width="13.61328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9637A794-8007-49CC-8F5F-7B1B6D1013D1}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="14.61328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.61328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.15234375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.4609375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2093A464-2458-4758-8AD1-56F641BA6951}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="6.3046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.61328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.61328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.07421875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.53515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.15234375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.15234375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2732128F-8199-4167-8AEC-34AB980A1CE0}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="13.53515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.69140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.61328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.07421875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.84375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.53515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="56.921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.23046875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.61328125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B4E1C5-A340-4879-A0CA-1787EB3FADA1}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="37.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.23046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.3828125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.4609375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.4609375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.3046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.3828125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.4609375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" t="s">
+        <v>196</v>
+      </c>
+      <c r="I2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A420E979-43C1-4097-A8E1-9E2885E36FF2}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -517,16 +1892,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -536,7 +1911,64 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA5C585-BAEA-4D40-B47C-F28DCE6A03B0}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="4.84375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.23046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.15234375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.4609375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBDE4698-8E70-4ADB-A3F0-FD29B49CD44C}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -551,24 +1983,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -578,44 +2010,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F5E450-0622-44D7-9FFD-D2B6EC513F68}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B3BB143-671C-4409-BD33-345667817B49}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -629,66 +2029,529 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>163</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>163</v>
       </c>
       <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
         <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1173123E-C914-42D9-9281-1E099BA723E4}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="9.61328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.07421875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4918654-77DC-47AA-A94D-CB473E73C0E7}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="3" width="21.3828125" customWidth="1"/>
+    <col min="4" max="4" width="15.69140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.3828125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.53515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.4609375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{665C8ADB-CF55-44AE-B92A-3AAE7F264878}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.3046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02419A3E-EF56-4821-9B74-4B3B3E768B47}">
+  <dimension ref="A1:M5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.3046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>174</v>
+      </c>
+      <c r="J2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" t="s">
+        <v>178</v>
+      </c>
+      <c r="J3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" t="s">
+        <v>182</v>
+      </c>
+      <c r="J4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
+        <v>144</v>
+      </c>
+      <c r="M4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" t="s">
+        <v>186</v>
+      </c>
+      <c r="J5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" t="s">
+        <v>145</v>
+      </c>
+      <c r="M5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>